--- a/Pair_Triple_freq.xlsx
+++ b/Pair_Triple_freq.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="22">
   <si>
     <t>Apple</t>
   </si>
@@ -452,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +516,7 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <f>C2/D2</f>
+        <f t="shared" ref="E2:E33" si="0">C2/D2</f>
         <v>0.76923076923076927</v>
       </c>
       <c r="H2" t="s">
@@ -553,7 +555,7 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <f>C3/D3</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="H3" t="s">
@@ -592,7 +594,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <f>C4/D4</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="H4" t="s">
@@ -631,7 +633,7 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <f>C5/D5</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="H5" t="s">
@@ -670,7 +672,7 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <f>C6/D6</f>
+        <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
       <c r="H6" t="s">
@@ -709,7 +711,7 @@
         <v>16</v>
       </c>
       <c r="E7">
-        <f>C7/D7</f>
+        <f t="shared" si="0"/>
         <v>0.875</v>
       </c>
       <c r="H7" t="s">
@@ -748,7 +750,7 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <f>C8/D8</f>
+        <f t="shared" si="0"/>
         <v>0.8666666666666667</v>
       </c>
       <c r="H8" t="s">
@@ -787,7 +789,7 @@
         <v>16</v>
       </c>
       <c r="E9">
-        <f>C9/D9</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="H9" t="s">
@@ -826,7 +828,7 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <f>C10/D10</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="H10" t="s">
@@ -865,7 +867,7 @@
         <v>15</v>
       </c>
       <c r="E11">
-        <f>C11/D11</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="H11" t="s">
@@ -904,7 +906,7 @@
         <v>15</v>
       </c>
       <c r="E12">
-        <f>C12/D12</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="H12" t="s">
@@ -943,7 +945,7 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <f>C13/D13</f>
+        <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="H13" t="s">
@@ -982,7 +984,7 @@
         <v>16</v>
       </c>
       <c r="E14">
-        <f>C14/D14</f>
+        <f t="shared" si="0"/>
         <v>0.6875</v>
       </c>
       <c r="L14" t="s">
@@ -1015,7 +1017,7 @@
         <v>15</v>
       </c>
       <c r="E15">
-        <f>C15/D15</f>
+        <f t="shared" si="0"/>
         <v>0.73333333333333328</v>
       </c>
       <c r="L15" t="s">
@@ -1048,7 +1050,7 @@
         <v>16</v>
       </c>
       <c r="E16">
-        <f>C16/D16</f>
+        <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
       <c r="L16" t="s">
@@ -1081,7 +1083,7 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <f>C17/D17</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="L17" t="s">
@@ -1114,7 +1116,7 @@
         <v>15</v>
       </c>
       <c r="E18">
-        <f>C18/D18</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="L18" t="s">
@@ -1147,7 +1149,7 @@
         <v>11</v>
       </c>
       <c r="E19">
-        <f>C19/D19</f>
+        <f t="shared" si="0"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="L19" t="s">
@@ -1180,7 +1182,7 @@
         <v>15</v>
       </c>
       <c r="E20">
-        <f>C20/D20</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="L20" t="s">
@@ -1213,7 +1215,7 @@
         <v>11</v>
       </c>
       <c r="E21">
-        <f>C21/D21</f>
+        <f t="shared" si="0"/>
         <v>0.81818181818181823</v>
       </c>
       <c r="L21" t="s">
@@ -1246,7 +1248,7 @@
         <v>15</v>
       </c>
       <c r="E22">
-        <f>C22/D22</f>
+        <f t="shared" si="0"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="L22" t="s">
@@ -1279,7 +1281,7 @@
         <v>15</v>
       </c>
       <c r="E23">
-        <f>C23/D23</f>
+        <f t="shared" si="0"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="L23" t="s">
@@ -1312,7 +1314,7 @@
         <v>15</v>
       </c>
       <c r="E24">
-        <f>C24/D24</f>
+        <f t="shared" si="0"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="L24" t="s">
@@ -1345,7 +1347,7 @@
         <v>11</v>
       </c>
       <c r="E25">
-        <f>C25/D25</f>
+        <f t="shared" si="0"/>
         <v>0.72727272727272729</v>
       </c>
       <c r="L25" t="s">
@@ -1378,7 +1380,7 @@
         <v>10</v>
       </c>
       <c r="E26">
-        <f>C26/D26</f>
+        <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
       <c r="L26" t="s">
@@ -1411,7 +1413,7 @@
         <v>10</v>
       </c>
       <c r="E27">
-        <f>C27/D27</f>
+        <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
       <c r="L27" t="s">
@@ -1444,7 +1446,7 @@
         <v>8</v>
       </c>
       <c r="E28">
-        <f>C28/D28</f>
+        <f t="shared" si="0"/>
         <v>0.875</v>
       </c>
       <c r="L28" t="s">
@@ -1477,7 +1479,7 @@
         <v>11</v>
       </c>
       <c r="E29">
-        <f>C29/D29</f>
+        <f t="shared" si="0"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="L29" t="s">
@@ -1510,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="E30">
-        <f>C30/D30</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="L30" t="s">
@@ -1543,7 +1545,7 @@
         <v>10</v>
       </c>
       <c r="E31">
-        <f>C31/D31</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="L31" t="s">
@@ -1576,7 +1578,7 @@
         <v>10</v>
       </c>
       <c r="E32">
-        <f>C32/D32</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="L32" t="s">
@@ -1609,7 +1611,7 @@
         <v>10</v>
       </c>
       <c r="E33">
-        <f>C33/D33</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="L33" t="s">
@@ -1642,7 +1644,7 @@
         <v>8</v>
       </c>
       <c r="E34">
-        <f>C34/D34</f>
+        <f t="shared" ref="E34:E65" si="1">C34/D34</f>
         <v>0.75</v>
       </c>
       <c r="L34" t="s">
@@ -1675,7 +1677,7 @@
         <v>8</v>
       </c>
       <c r="E35">
-        <f>C35/D35</f>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
       <c r="L35" t="s">
@@ -1708,7 +1710,7 @@
         <v>8</v>
       </c>
       <c r="E36">
-        <f>C36/D36</f>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
       <c r="L36" t="s">
@@ -1741,7 +1743,7 @@
         <v>8</v>
       </c>
       <c r="E37">
-        <f>C37/D37</f>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
       <c r="L37" t="s">
@@ -1774,7 +1776,7 @@
         <v>7</v>
       </c>
       <c r="E38">
-        <f>C38/D38</f>
+        <f t="shared" si="1"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="L38" t="s">
@@ -1807,7 +1809,7 @@
         <v>7</v>
       </c>
       <c r="E39">
-        <f>C39/D39</f>
+        <f t="shared" si="1"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="L39" t="s">
@@ -1840,7 +1842,7 @@
         <v>8</v>
       </c>
       <c r="E40">
-        <f>C40/D40</f>
+        <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
       <c r="L40" t="s">
@@ -1873,7 +1875,7 @@
         <v>8</v>
       </c>
       <c r="E41">
-        <f>C41/D41</f>
+        <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
       <c r="L41" t="s">
@@ -1906,7 +1908,7 @@
         <v>8</v>
       </c>
       <c r="E42">
-        <f>C42/D42</f>
+        <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
       <c r="L42" t="s">
@@ -1939,7 +1941,7 @@
         <v>8</v>
       </c>
       <c r="E43">
-        <f>C43/D43</f>
+        <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
       <c r="L43" t="s">
@@ -1972,7 +1974,7 @@
         <v>8</v>
       </c>
       <c r="E44">
-        <f>C44/D44</f>
+        <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
       <c r="L44" t="s">
@@ -2005,7 +2007,7 @@
         <v>7</v>
       </c>
       <c r="E45">
-        <f>C45/D45</f>
+        <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="L45" t="s">
@@ -2038,7 +2040,7 @@
         <v>7</v>
       </c>
       <c r="E46">
-        <f>C46/D46</f>
+        <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="L46" t="s">
@@ -2071,7 +2073,7 @@
         <v>7</v>
       </c>
       <c r="E47">
-        <f>C47/D47</f>
+        <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="L47" t="s">
@@ -2104,7 +2106,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <f>C48/D48</f>
+        <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="L48" t="s">
@@ -2137,7 +2139,7 @@
         <v>7</v>
       </c>
       <c r="E49">
-        <f>C49/D49</f>
+        <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="L49" t="s">
@@ -2170,7 +2172,7 @@
         <v>11</v>
       </c>
       <c r="E50">
-        <f>C50/D50</f>
+        <f t="shared" si="1"/>
         <v>0.36363636363636365</v>
       </c>
       <c r="L50" t="s">
@@ -2203,7 +2205,7 @@
         <v>11</v>
       </c>
       <c r="E51">
-        <f>C51/D51</f>
+        <f t="shared" si="1"/>
         <v>0.36363636363636365</v>
       </c>
       <c r="L51" t="s">
@@ -2236,7 +2238,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <f>C52/D52</f>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="L52" t="s">
@@ -2269,7 +2271,7 @@
         <v>10</v>
       </c>
       <c r="E53">
-        <f>C53/D53</f>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="L53" t="s">
@@ -2302,7 +2304,7 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <f>C54/D54</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="L54" t="s">
@@ -2335,7 +2337,7 @@
         <v>7</v>
       </c>
       <c r="E55">
-        <f>C55/D55</f>
+        <f t="shared" si="1"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="L55" t="s">
@@ -2368,7 +2370,7 @@
         <v>7</v>
       </c>
       <c r="E56">
-        <f>C56/D56</f>
+        <f t="shared" si="1"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="L56" t="s">
@@ -2401,7 +2403,7 @@
         <v>11</v>
       </c>
       <c r="E57">
-        <f>C57/D57</f>
+        <f t="shared" si="1"/>
         <v>0.27272727272727271</v>
       </c>
       <c r="L57" t="s">
@@ -2434,7 +2436,7 @@
         <v>8</v>
       </c>
       <c r="E58">
-        <f>C58/D58</f>
+        <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
       <c r="L58" t="s">
@@ -2467,7 +2469,7 @@
         <v>8</v>
       </c>
       <c r="E59">
-        <f>C59/D59</f>
+        <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
       <c r="L59" t="s">
@@ -2500,7 +2502,7 @@
         <v>8</v>
       </c>
       <c r="E60">
-        <f>C60/D60</f>
+        <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
       <c r="L60" t="s">
@@ -2533,7 +2535,7 @@
         <v>8</v>
       </c>
       <c r="E61">
-        <f>C61/D61</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="L61" t="s">
@@ -2566,7 +2568,7 @@
         <v>8</v>
       </c>
       <c r="E62">
-        <f>C62/D62</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="L62" t="s">
@@ -2599,7 +2601,7 @@
         <v>7</v>
       </c>
       <c r="E63">
-        <f>C63/D63</f>
+        <f t="shared" si="1"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="L63" t="s">
@@ -2632,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="E64">
-        <f>C64/D64</f>
+        <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
       <c r="L64" t="s">
@@ -2665,7 +2667,7 @@
         <v>8</v>
       </c>
       <c r="E65">
-        <f>C65/D65</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L65" t="s">
@@ -2698,7 +2700,7 @@
         <v>7</v>
       </c>
       <c r="E66">
-        <f>C66/D66</f>
+        <f t="shared" ref="E66:E97" si="2">C66/D66</f>
         <v>0</v>
       </c>
       <c r="L66" t="s">
@@ -2731,7 +2733,7 @@
         <v>8</v>
       </c>
       <c r="E67">
-        <f>C67/D67</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L67" t="s">
@@ -5375,4 +5377,5482 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G188"/>
+  <sheetViews>
+    <sheetView topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="C150" sqref="C150"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>8</v>
+      </c>
+      <c r="G1">
+        <f>E1/D1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <f>E2/D2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <f>E3/D3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <f>E4/D4</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <f>E5/D5</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <f>E6/D6</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <f>E7/D7</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <f>E8/D8</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <f>E9/D9</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <f>E10/D10</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <f>E11/D11</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <f>E12/D12</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <f>E13/D13</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <f>E14/D14</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <f>E15/D15</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <f>E16/D16</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <f>E17/D17</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <f>E18/D18</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <f>E19/D19</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <f>E20/D20</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <f>E21/D21</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <f>E22/D22</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <f>E23/D23</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <f>E24/D24</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <f>E25/D25</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>11</v>
+      </c>
+      <c r="G26">
+        <f>E26/D26</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <f>E27/D27</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>11</v>
+      </c>
+      <c r="G28">
+        <f>E28/D28</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <f>E29/D29</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <f>E30/D30</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>11</v>
+      </c>
+      <c r="G31">
+        <f>E31/D31</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>8</v>
+      </c>
+      <c r="G32">
+        <f>E32/D32</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <f>E33/D33</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>8</v>
+      </c>
+      <c r="G34">
+        <f>E34/D34</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>8</v>
+      </c>
+      <c r="G35">
+        <f>E35/D35</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>8</v>
+      </c>
+      <c r="G36">
+        <f>E36/D36</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <f>E37/D37</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="G38">
+        <f>E38/D38</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="G39">
+        <f>E39/D39</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <f>E40/D40</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>8</v>
+      </c>
+      <c r="G41">
+        <f>E41/D41</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>7</v>
+      </c>
+      <c r="G42">
+        <f>E42/D42</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <f>E43/D43</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>8</v>
+      </c>
+      <c r="G44">
+        <f>E44/D44</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>8</v>
+      </c>
+      <c r="G45">
+        <f>E45/D45</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>7</v>
+      </c>
+      <c r="G46">
+        <f>E46/D46</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>16</v>
+      </c>
+      <c r="G47">
+        <f>E47/D47</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>11</v>
+      </c>
+      <c r="G48">
+        <f>E48/D48</f>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>15</v>
+      </c>
+      <c r="G49">
+        <f>E49/D49</f>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>15</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="F50">
+        <v>20</v>
+      </c>
+      <c r="G50">
+        <f>E50/D50</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>20</v>
+      </c>
+      <c r="G51">
+        <f>E51/D51</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>15</v>
+      </c>
+      <c r="G52">
+        <f>E52/D52</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>11</v>
+      </c>
+      <c r="G53">
+        <f>E53/D53</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+      <c r="G54">
+        <f>E54/D54</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>10</v>
+      </c>
+      <c r="G55">
+        <f>E55/D55</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>8</v>
+      </c>
+      <c r="G56">
+        <f>E56/D56</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>11</v>
+      </c>
+      <c r="G57">
+        <f>E57/D57</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>8</v>
+      </c>
+      <c r="G58">
+        <f>E58/D58</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59">
+        <f>E59/D59</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60">
+        <f>E60/D60</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>8</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>11</v>
+      </c>
+      <c r="G61">
+        <f>E61/D61</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>16</v>
+      </c>
+      <c r="G62">
+        <f>E62/D62</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63">
+        <v>16</v>
+      </c>
+      <c r="G63">
+        <f>E63/D63</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64">
+        <v>8</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>15</v>
+      </c>
+      <c r="G64">
+        <f>E64/D64</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65">
+        <v>11</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>16</v>
+      </c>
+      <c r="G65">
+        <f>E65/D65</f>
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>9</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>15</v>
+      </c>
+      <c r="G66">
+        <f>E66/D66</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>9</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>15</v>
+      </c>
+      <c r="G67">
+        <f>E67/D67</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68">
+        <v>9</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>15</v>
+      </c>
+      <c r="G68">
+        <f>E68/D68</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>9</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>15</v>
+      </c>
+      <c r="G69">
+        <f>E69/D69</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70">
+        <v>6</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>15</v>
+      </c>
+      <c r="G70">
+        <f>E70/D70</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71">
+        <v>6</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>8</v>
+      </c>
+      <c r="G71">
+        <f>E71/D71</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72">
+        <v>6</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>15</v>
+      </c>
+      <c r="G72">
+        <f>E72/D72</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73">
+        <v>6</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>15</v>
+      </c>
+      <c r="G73">
+        <f>E73/D73</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74">
+        <v>6</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>15</v>
+      </c>
+      <c r="G74">
+        <f>E74/D74</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75">
+        <v>6</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>15</v>
+      </c>
+      <c r="G75">
+        <f>E75/D75</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>11</v>
+      </c>
+      <c r="G76">
+        <f>E76/D76</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>8</v>
+      </c>
+      <c r="G77">
+        <f>E77/D77</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78">
+        <f>E78/D78</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>11</v>
+      </c>
+      <c r="G79">
+        <f>E79/D79</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>10</v>
+      </c>
+      <c r="G80">
+        <f>E80/D80</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>8</v>
+      </c>
+      <c r="G81">
+        <f>E81/D81</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>7</v>
+      </c>
+      <c r="G82">
+        <f>E82/D82</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>10</v>
+      </c>
+      <c r="G83">
+        <f>E83/D83</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>10</v>
+      </c>
+      <c r="G84">
+        <f>E84/D84</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>8</v>
+      </c>
+      <c r="G85">
+        <f>E85/D85</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>7</v>
+      </c>
+      <c r="G86">
+        <f>E86/D86</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>7</v>
+      </c>
+      <c r="G87">
+        <f>E87/D87</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+      <c r="G88">
+        <f>E88/D88</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>8</v>
+      </c>
+      <c r="G89">
+        <f>E89/D89</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>8</v>
+      </c>
+      <c r="G90">
+        <f>E90/D90</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>7</v>
+      </c>
+      <c r="G91">
+        <f>E91/D91</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>8</v>
+      </c>
+      <c r="G92">
+        <f>E92/D92</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>7</v>
+      </c>
+      <c r="G93">
+        <f>E93/D93</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94">
+        <f>E94/D94</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>8</v>
+      </c>
+      <c r="G95">
+        <f>E95/D95</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>8</v>
+      </c>
+      <c r="G96">
+        <f>E96/D96</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>7</v>
+      </c>
+      <c r="G97">
+        <f>E97/D97</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>7</v>
+      </c>
+      <c r="G98">
+        <f>E98/D98</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>8</v>
+      </c>
+      <c r="G99">
+        <f>E99/D99</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>8</v>
+      </c>
+      <c r="G100">
+        <f>E100/D100</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>7</v>
+      </c>
+      <c r="G101">
+        <f>E101/D101</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>10</v>
+      </c>
+      <c r="G102">
+        <f>E102/D102</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>7</v>
+      </c>
+      <c r="G103">
+        <f>E103/D103</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104">
+        <v>7</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104">
+        <v>15</v>
+      </c>
+      <c r="G104">
+        <f>E104/D104</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105">
+        <v>7</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <v>15</v>
+      </c>
+      <c r="G105">
+        <f>E105/D105</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106">
+        <v>7</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106">
+        <v>16</v>
+      </c>
+      <c r="G106">
+        <f>E106/D106</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107">
+        <v>7</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107">
+        <v>15</v>
+      </c>
+      <c r="G107">
+        <f>E107/D107</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108">
+        <v>7</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108">
+        <v>15</v>
+      </c>
+      <c r="G108">
+        <f>E108/D108</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109">
+        <v>7</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109">
+        <v>15</v>
+      </c>
+      <c r="G109">
+        <f>E109/D109</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110">
+        <v>7</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110">
+        <v>15</v>
+      </c>
+      <c r="G110">
+        <f>E110/D110</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111">
+        <v>7</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111">
+        <v>15</v>
+      </c>
+      <c r="G111">
+        <f>E111/D111</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112">
+        <v>8</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112">
+        <v>15</v>
+      </c>
+      <c r="G112">
+        <f>E112/D112</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113">
+        <v>8</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113">
+        <v>15</v>
+      </c>
+      <c r="G113">
+        <f>E113/D113</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114">
+        <v>4</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>8</v>
+      </c>
+      <c r="G114">
+        <f>E114/D114</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115">
+        <v>4</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>7</v>
+      </c>
+      <c r="G115">
+        <f>E115/D115</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116">
+        <v>4</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>7</v>
+      </c>
+      <c r="G116">
+        <f>E116/D116</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117">
+        <v>4</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>8</v>
+      </c>
+      <c r="G117">
+        <f>E117/D117</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118">
+        <v>4</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>7</v>
+      </c>
+      <c r="G118">
+        <f>E118/D118</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119">
+        <v>4</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>7</v>
+      </c>
+      <c r="G119">
+        <f>E119/D119</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120">
+        <v>4</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>7</v>
+      </c>
+      <c r="G120">
+        <f>E120/D120</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121">
+        <v>4</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>8</v>
+      </c>
+      <c r="G121">
+        <f>E121/D121</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122">
+        <v>4</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>8</v>
+      </c>
+      <c r="G122">
+        <f>E122/D122</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123">
+        <v>4</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>7</v>
+      </c>
+      <c r="G123">
+        <f>E123/D123</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124">
+        <v>4</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>7</v>
+      </c>
+      <c r="G124">
+        <f>E124/D124</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125">
+        <v>4</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>8</v>
+      </c>
+      <c r="G125">
+        <f>E125/D125</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>1</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126">
+        <v>4</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>8</v>
+      </c>
+      <c r="G126">
+        <f>E126/D126</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>1</v>
+      </c>
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127">
+        <v>4</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>7</v>
+      </c>
+      <c r="G127">
+        <f>E127/D127</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128">
+        <v>4</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>10</v>
+      </c>
+      <c r="G128">
+        <f>E128/D128</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129">
+        <v>4</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>8</v>
+      </c>
+      <c r="G129">
+        <f>E129/D129</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130">
+        <v>4</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>7</v>
+      </c>
+      <c r="G130">
+        <f>E130/D130</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131">
+        <v>4</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>7</v>
+      </c>
+      <c r="G131">
+        <f>E131/D131</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132">
+        <v>4</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>7</v>
+      </c>
+      <c r="G132">
+        <f>E132/D132</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133">
+        <v>4</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>8</v>
+      </c>
+      <c r="G133">
+        <f>E133/D133</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134">
+        <v>4</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>8</v>
+      </c>
+      <c r="G134">
+        <f>E134/D134</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135">
+        <v>4</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>7</v>
+      </c>
+      <c r="G135">
+        <f>E135/D135</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>2</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136">
+        <v>4</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>10</v>
+      </c>
+      <c r="G136">
+        <f>E136/D136</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137">
+        <v>4</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>10</v>
+      </c>
+      <c r="G137">
+        <f>E137/D137</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138">
+        <v>4</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>7</v>
+      </c>
+      <c r="G138">
+        <f>E138/D138</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139">
+        <v>4</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>8</v>
+      </c>
+      <c r="G139">
+        <f>E139/D139</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140">
+        <v>4</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>8</v>
+      </c>
+      <c r="G140">
+        <f>E140/D140</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141">
+        <v>4</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>7</v>
+      </c>
+      <c r="G141">
+        <f>E141/D141</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142">
+        <v>4</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>7</v>
+      </c>
+      <c r="G142">
+        <f>E142/D142</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143">
+        <v>4</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>7</v>
+      </c>
+      <c r="G143">
+        <f>E143/D143</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144">
+        <v>4</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>7</v>
+      </c>
+      <c r="G144">
+        <f>E144/D144</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145">
+        <v>4</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>8</v>
+      </c>
+      <c r="G145">
+        <f>E145/D145</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146">
+        <v>4</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>7</v>
+      </c>
+      <c r="G146">
+        <f>E146/D146</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147">
+        <v>4</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>10</v>
+      </c>
+      <c r="G147">
+        <f>E147/D147</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148">
+        <v>9</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+      <c r="F148">
+        <v>16</v>
+      </c>
+      <c r="G148">
+        <f>E148/D148</f>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" t="s">
+        <v>3</v>
+      </c>
+      <c r="D149">
+        <v>10</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+      <c r="F149">
+        <v>20</v>
+      </c>
+      <c r="G149">
+        <f>E149/D149</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150">
+        <v>10</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+      <c r="F150">
+        <v>15</v>
+      </c>
+      <c r="G150">
+        <f>E150/D150</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151">
+        <v>5</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>8</v>
+      </c>
+      <c r="G151">
+        <f>E151/D151</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152">
+        <v>5</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>7</v>
+      </c>
+      <c r="G152">
+        <f>E152/D152</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153">
+        <v>5</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>8</v>
+      </c>
+      <c r="G153">
+        <f>E153/D153</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154">
+        <v>5</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>7</v>
+      </c>
+      <c r="G154">
+        <f>E154/D154</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155">
+        <v>5</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>8</v>
+      </c>
+      <c r="G155">
+        <f>E155/D155</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" t="s">
+        <v>7</v>
+      </c>
+      <c r="D156">
+        <v>5</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>7</v>
+      </c>
+      <c r="G156">
+        <f>E156/D156</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157">
+        <v>5</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>8</v>
+      </c>
+      <c r="G157">
+        <f>E157/D157</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>1</v>
+      </c>
+      <c r="B158" t="s">
+        <v>2</v>
+      </c>
+      <c r="C158" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158">
+        <v>5</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>7</v>
+      </c>
+      <c r="G158">
+        <f>E158/D158</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>2</v>
+      </c>
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159">
+        <v>5</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>7</v>
+      </c>
+      <c r="G159">
+        <f>E159/D159</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>2</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160">
+        <v>5</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>7</v>
+      </c>
+      <c r="G160">
+        <f>E160/D160</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>3</v>
+      </c>
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161">
+        <v>5</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>7</v>
+      </c>
+      <c r="G161">
+        <f>E161/D161</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162">
+        <v>6</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>15</v>
+      </c>
+      <c r="G162">
+        <f>E162/D162</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163">
+        <v>7</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>15</v>
+      </c>
+      <c r="G163">
+        <f>E163/D163</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>2</v>
+      </c>
+      <c r="C164" t="s">
+        <v>3</v>
+      </c>
+      <c r="D164">
+        <v>7</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>20</v>
+      </c>
+      <c r="G164">
+        <f>E164/D164</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" t="s">
+        <v>2</v>
+      </c>
+      <c r="C165" t="s">
+        <v>5</v>
+      </c>
+      <c r="D165">
+        <v>8</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>15</v>
+      </c>
+      <c r="G165">
+        <f>E165/D165</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166">
+        <v>3</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>8</v>
+      </c>
+      <c r="G166">
+        <f>E166/D166</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167">
+        <v>4</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>10</v>
+      </c>
+      <c r="G167">
+        <f>E167/D167</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>0</v>
+      </c>
+      <c r="B168" t="s">
+        <v>2</v>
+      </c>
+      <c r="C168" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>8</v>
+      </c>
+      <c r="G168">
+        <f>E168/D168</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>2</v>
+      </c>
+      <c r="C169" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169">
+        <v>3</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>10</v>
+      </c>
+      <c r="G169">
+        <f>E169/D169</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" t="s">
+        <v>6</v>
+      </c>
+      <c r="C170" t="s">
+        <v>10</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>8</v>
+      </c>
+      <c r="G170">
+        <f>E170/D170</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" t="s">
+        <v>10</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>7</v>
+      </c>
+      <c r="G171">
+        <f>E171/D171</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" t="s">
+        <v>10</v>
+      </c>
+      <c r="D172">
+        <v>2</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>10</v>
+      </c>
+      <c r="G172">
+        <f>E172/D172</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>1</v>
+      </c>
+      <c r="B173" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>8</v>
+      </c>
+      <c r="G173">
+        <f>E173/D173</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>1</v>
+      </c>
+      <c r="B174" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174" t="s">
+        <v>10</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>8</v>
+      </c>
+      <c r="G174">
+        <f>E174/D174</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>1</v>
+      </c>
+      <c r="B175" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>7</v>
+      </c>
+      <c r="G175">
+        <f>E175/D175</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>1</v>
+      </c>
+      <c r="B176" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>8</v>
+      </c>
+      <c r="G176">
+        <f>E176/D176</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>2</v>
+      </c>
+      <c r="B177" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>8</v>
+      </c>
+      <c r="G177">
+        <f>E177/D177</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B178" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" t="s">
+        <v>10</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>7</v>
+      </c>
+      <c r="G178">
+        <f>E178/D178</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>3</v>
+      </c>
+      <c r="B179" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179" t="s">
+        <v>10</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>8</v>
+      </c>
+      <c r="G179">
+        <f>E179/D179</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>3</v>
+      </c>
+      <c r="B180" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" t="s">
+        <v>10</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>7</v>
+      </c>
+      <c r="G180">
+        <f>E180/D180</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181" t="s">
+        <v>10</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>8</v>
+      </c>
+      <c r="G181">
+        <f>E181/D181</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" t="s">
+        <v>10</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>7</v>
+      </c>
+      <c r="G182">
+        <f>E182/D182</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>7</v>
+      </c>
+      <c r="G183">
+        <f>E183/D183</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>6</v>
+      </c>
+      <c r="B184" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" t="s">
+        <v>10</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>7</v>
+      </c>
+      <c r="G184">
+        <f>E184/D184</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>6</v>
+      </c>
+      <c r="B185" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" t="s">
+        <v>10</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>8</v>
+      </c>
+      <c r="G185">
+        <f>E185/D185</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" t="s">
+        <v>10</v>
+      </c>
+      <c r="C186" t="s">
+        <v>11</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>8</v>
+      </c>
+      <c r="G186">
+        <f>E186/D186</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>7</v>
+      </c>
+      <c r="B187" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187">
+        <v>2</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>7</v>
+      </c>
+      <c r="G187">
+        <f>E187/D187</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>7</v>
+      </c>
+      <c r="B188" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188" t="s">
+        <v>11</v>
+      </c>
+      <c r="D188">
+        <v>2</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>7</v>
+      </c>
+      <c r="G188">
+        <f>E188/D188</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B42" sqref="A42:B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <f>D1/C1</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <f>D2/C2</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <f>D3/C3</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <f>D4/C4</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f>D5/C5</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f>D6/C6</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f>D7/C7</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <f>D8/C8</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <f>D9/C9</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f>D10/C10</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <f>D11/C11</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <f>D12/C12</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <f>D13/C13</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <f>D14/C14</f>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <f>D15/C15</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <f>D16/C16</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <f>D17/C17</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <f>D18/C18</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <f>D19/C19</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <f>D20/C20</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <f>D21/C21</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <f>D22/C22</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <f>D23/C23</f>
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <f>D24/C24</f>
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <f>D25/C25</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <f>D26/C26</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <f>D27/C27</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <f>D28/C28</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <f>D29/C29</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <f>D30/C30</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <f>D31/C31</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <f>D32/C32</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <f>D33/C33</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <f>D34/C34</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <f>D35/C35</f>
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <f>D36/C36</f>
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <f>D37/C37</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <f>D38/C38</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <f>D39/C39</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <f>D40/C40</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <f>D41/C41</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>14</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <f>D42/C42</f>
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <f>D43/C43</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <f>D44/C44</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <f>D45/C45</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <f>D46/C46</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <f>D47/C47</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <f>D48/C48</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <f>D49/C49</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <f>D50/C50</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f>D51/C51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f>D52/C52</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>